--- a/Luban/MiniTemplate/Datas/__tables__.xlsx
+++ b/Luban/MiniTemplate/Datas/__tables__.xlsx
@@ -1,137 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28227"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace2\luban_examples\MiniTemplate\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3A7ABB-0FC0-44C9-B805-C6CF73A19780}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <definedNames/>
+  <calcPr calcId="144525" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
-  <si>
-    <t>##var</t>
-  </si>
-  <si>
-    <t>full_name</t>
-  </si>
-  <si>
-    <t>value_type</t>
-  </si>
-  <si>
-    <t>read_schema_from_file</t>
-  </si>
-  <si>
-    <t>input</t>
-  </si>
-  <si>
-    <t>index</t>
-  </si>
-  <si>
-    <t>mode</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>comment</t>
-  </si>
-  <si>
-    <t>tags</t>
-  </si>
-  <si>
-    <t>output</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>全名(包含模块和名字)</t>
-  </si>
-  <si>
-    <t>记录类名</t>
-  </si>
-  <si>
-    <t>从excel读取定义</t>
-  </si>
-  <si>
-    <t>文件列表</t>
-  </si>
-  <si>
-    <t>表id字段</t>
-  </si>
-  <si>
-    <t>模式</t>
-  </si>
-  <si>
-    <t>分组</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>输出文件名</t>
-  </si>
-  <si>
-    <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
-  </si>
-  <si>
-    <t>可以多个，以逗号','分隔</t>
-  </si>
-  <si>
-    <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
-  </si>
-  <si>
-    <t>取值one|map|list，为空自动为map</t>
-  </si>
-  <si>
-    <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
-  </si>
-  <si>
-    <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
+      <color rgb="FF006100"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -153,35 +62,95 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -442,115 +411,183 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="15.625" customWidth="1"/>
-    <col min="4" max="4" width="32.375" customWidth="1"/>
-    <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col width="20.375" customWidth="1" style="2" min="2" max="2"/>
+    <col width="15.625" customWidth="1" style="2" min="3" max="3"/>
+    <col width="32.375" customWidth="1" style="2" min="4" max="4"/>
+    <col width="24.375" customWidth="1" style="2" min="5" max="5"/>
+    <col width="18" customWidth="1" style="2" min="6" max="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
+    <row r="1" customFormat="1" s="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>##var</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>full_name</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>value_type</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>read_schema_from_file</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>input</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>index</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>mode</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>group</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>comment</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>tags</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>output</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
+    <row r="2" customFormat="1" s="1">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>全名(包含模块和名字)</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>记录类名</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>从excel读取定义</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>文件列表</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>表id字段</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>模式</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>分组</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>注释</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>输出文件名</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>26</v>
-      </c>
+    <row r="3" customFormat="1" s="1">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>##</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>false时取已有定义，true为从excel标题头和属性栏读取定义</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>可以多个，以逗号','分隔</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>为空的话自动取value_type中第一个字段,多主键联合索引为key1+key2,多主键独立索引为"key1,key2"</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>取值one|map|list，为空自动为map</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>取值c|s|e，可以有多个，以逗号','分隔。空则表示属于所有分组</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="0" t="n"/>
+      <c r="C4" s="0" t="n"/>
+      <c r="D4" s="0" t="n"/>
+      <c r="E4" s="0" t="n"/>
+      <c r="G4" s="0" t="n"/>
+      <c r="H4" s="0" t="n"/>
+      <c r="I4" s="0" t="n"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>